--- a/biology/Zoologie/Hespérie_de_la_ronce/Hespérie_de_la_ronce.xlsx
+++ b/biology/Zoologie/Hespérie_de_la_ronce/Hespérie_de_la_ronce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_la_ronce</t>
+          <t>Hespérie_de_la_ronce</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrgus centaureae
 L’Hespérie de la ronce ou Hespérie grisâtre (Pyrgus centaureae) est une espèce de lépidoptères (papillons) de la famille des Hesperiidae, de la sous-famille des Pyrginae et du genre Pyrgus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_la_ronce</t>
+          <t>Hespérie_de_la_ronce</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,17 +524,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Pyrgus centaureae a été décrit par Pierre Rambur en 1839.
-Synonyme : Hesperia centaureae, Dyar, 1903[1].
-Noms vernaculaires
-L'Hespérie de la ronce se nomme Northern Grizzled Skipper ou Grizzled Skipper ou Alpine Checkered Skipper  en anglais[1].
-Sous-espèces
-Pyrgus centaureae centaureae
-Pyrgus centaureae freija (Warren, 1924)
-Pyrgus centaureae loki Evans, 1953
-Pyrgus centaureae wyandot (Edwards, 1863)[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pyrgus centaureae a été décrit par Pierre Rambur en 1839.
+Synonyme : Hesperia centaureae, Dyar, 1903.
+</t>
         </is>
       </c>
     </row>
@@ -532,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_la_ronce</t>
+          <t>Hespérie_de_la_ronce</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,13 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Hespérie de la ronce est un petit papillon d'une envergure de 25 mm à 33 mm, au dessus de couleur marron clair, avec aux quatre ailes une frange marginale blanche entrecoupée et une ornementation de taches blanches dont aux ailes postérieures une tache blanche sous-costale caractéristique[2],[3].
-Le revers est plus clair avec des nervures blanches et des taches blanches.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de la ronce se nomme Northern Grizzled Skipper ou Grizzled Skipper ou Alpine Checkered Skipper  en anglais.
 </t>
         </is>
       </c>
@@ -564,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_la_ronce</t>
+          <t>Hespérie_de_la_ronce</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,17 +592,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dans les régions sub-arctiques deux années sont nécessaires pour assurer le développement[3].
-Période de vol et hivernation
-L'Hespérie de la ronce vole en une génération de mi-juin à fin juillet en Europe[2]. En Amérique elle vole de mars à mai dans le sud[3].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont Rubus chamaemorus des Potentilla dont Potentilla canadensis, Potentilla diversifolia et des Fragaria dont Fragaria virginiana[1],[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pyrgus centaureae centaureae
+Pyrgus centaureae freija (Warren, 1924)
+Pyrgus centaureae loki Evans, 1953
+Pyrgus centaureae wyandot (Edwards, 1863).</t>
         </is>
       </c>
     </row>
@@ -599,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_la_ronce</t>
+          <t>Hespérie_de_la_ronce</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,16 +631,229 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de la ronce est un petit papillon d'une envergure de 25 mm à 33 mm, au dessus de couleur marron clair, avec aux quatre ailes une frange marginale blanche entrecoupée et une ornementation de taches blanches dont aux ailes postérieures une tache blanche sous-costale caractéristique,.
+Le revers est plus clair avec des nervures blanches et des taches blanches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_ronce</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_ronce</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les régions sub-arctiques deux années sont nécessaires pour assurer le développement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_ronce</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_ronce</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de la ronce vole en une génération de mi-juin à fin juillet en Europe. En Amérique elle vole de mars à mai dans le sud.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_ronce</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_ronce</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont Rubus chamaemorus des Potentilla dont Potentilla canadensis, Potentilla diversifolia et des Fragaria dont Fragaria virginiana,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_ronce</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_ronce</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hespérie de la ronce est présente dans les régions nordiques, en Scandinavie en Europe, dans la Russie arctique et dans l'Altaï en Asie, en Alaska, au Canada et aux États-Unis dans les Montagnes Rocheuses et les Appalaches en Amérique[1],[2],[3].
-Biotope
-L'Hespérie de la ronce réside dans la toundra, les marécages et les tourbières où pousse Rubus chamaemorus[2].
-Protection
-Pas de statut de protection particulier.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de la ronce est présente dans les régions nordiques, en Scandinavie en Europe, dans la Russie arctique et dans l'Altaï en Asie, en Alaska, au Canada et aux États-Unis dans les Montagnes Rocheuses et les Appalaches en Amérique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_ronce</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_ronce</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de la ronce réside dans la toundra, les marécages et les tourbières où pousse Rubus chamaemorus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hespérie_de_la_ronce</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_la_ronce</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
